--- a/image/diagnosticreport.xlsx
+++ b/image/diagnosticreport.xlsx
@@ -1080,45 +1080,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.12890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="59.62890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.69140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.50390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="47.06640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="46.80859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="170.2265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="117.3671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="166.02734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="118.1328125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/diagnosticreport.xlsx
+++ b/image/diagnosticreport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="293">
   <si>
     <t>Path</t>
   </si>
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -802,10 +802,6 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -865,7 +861,7 @@
     <t>DiagnosticReport.media.link</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Media)
+    <t xml:space="preserve">Reference(DocumentReference)
 </t>
   </si>
   <si>
@@ -1080,45 +1076,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.4296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="59.62890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.50390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="114.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="46.80859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.71875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="166.02734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="118.1328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="170.2265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="117.3671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3945,13 +3941,13 @@
         <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4002,7 +3998,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4023,7 +4019,7 @@
         <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4031,7 +4027,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4060,7 +4056,7 @@
         <v>98</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>100</v>
@@ -4113,7 +4109,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4134,7 +4130,7 @@
         <v>43</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4142,11 +4138,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4168,10 +4164,10 @@
         <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>100</v>
@@ -4226,7 +4222,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4255,7 +4251,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4278,19 +4274,19 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4339,7 +4335,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4360,7 +4356,7 @@
         <v>43</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4368,7 +4364,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4391,13 +4387,13 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4448,7 +4444,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>52</v>
@@ -4469,7 +4465,7 @@
         <v>43</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4477,11 +4473,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4500,17 +4496,17 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
@@ -4559,7 +4555,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4577,10 +4573,10 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -4588,7 +4584,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4614,10 +4610,10 @@
         <v>140</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4647,11 +4643,11 @@
         <v>144</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>43</v>
       </c>
@@ -4668,7 +4664,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4686,10 +4682,10 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -4697,7 +4693,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4720,19 +4716,19 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -4781,7 +4777,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4799,10 +4795,10 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
